--- a/src/main/resources/templates/MODELO NCE JAVA.xlsx
+++ b/src/main/resources/templates/MODELO NCE JAVA.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49169650-F84C-4769-A8C9-EF7C4812D44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edson\OneDrive\Desktop\Projetos\JAVA\api-automacao-livraria\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844990BD-C28C-43AD-AF4D-1B86CF96DAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11340" windowHeight="6030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Matriz!$A$1:$F$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Matriz!$A$1:$F$70</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Matriz!$1:$14</definedName>
   </definedNames>
   <calcPr calcId="191028" fullPrecision="0"/>
@@ -96,7 +101,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -258,7 +263,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -274,10 +279,10 @@
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -293,19 +298,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -314,10 +316,10 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -326,8 +328,20 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -342,25 +356,13 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Separador de milhares 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,6 +375,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2834640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403859</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>29007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7919AF0D-6998-5F89-FABD-5267D1FC9AA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3154680" y="160020"/>
+          <a:ext cx="2049779" cy="539547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>624348</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979C56A4-022C-FCAF-6572-B0342BB61CD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="320040" y="167640"/>
+          <a:ext cx="624348" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,113 +769,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:G65369"/>
+  <dimension ref="A5:G65377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" ht="4.5" customHeight="1"/>
-    <row r="6" spans="1:7" s="1" customFormat="1">
-      <c r="A6" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1">
-      <c r="A8" s="33" t="s">
+    <row r="5" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1">
-      <c r="A9" s="33" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1">
-      <c r="A10" s="34" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1">
-      <c r="A11" s="33" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="23.25" thickBot="1">
-      <c r="A13" s="32" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -783,736 +890,776 @@
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>1</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="15">
+      <c r="C15" s="17"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="14">
         <f>D15*E15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>2</v>
       </c>
       <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="15">
-        <f t="shared" ref="F16:F56" si="0">D16*E16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C16" s="12"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="14">
+        <f t="shared" ref="F16:F64" si="0">D16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>3</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C17" s="12"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>4</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C18" s="12"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>5</v>
       </c>
       <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C19" s="12"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>6</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C20" s="12"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>7</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C21" s="12"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>8</v>
       </c>
       <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C22" s="12"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>9</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C23" s="12"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>10</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C24" s="12"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>11</v>
       </c>
       <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C25" s="12"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>12</v>
       </c>
       <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C26" s="12"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>13</v>
       </c>
       <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C27" s="12"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>14</v>
       </c>
       <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>15</v>
       </c>
       <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C29" s="12"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>16</v>
       </c>
       <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C30" s="12"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>17</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="23"/>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C31" s="12"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>18</v>
       </c>
       <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C32" s="12"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>19</v>
       </c>
       <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C33" s="12"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>20</v>
       </c>
       <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C34" s="12"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>21</v>
       </c>
       <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C35" s="12"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>22</v>
       </c>
       <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C36" s="12"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>23</v>
       </c>
       <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="23"/>
-    </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C37" s="12"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>24</v>
       </c>
       <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="23"/>
-    </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C38" s="12"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>25</v>
       </c>
       <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C39" s="12"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>26</v>
       </c>
       <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C40" s="12"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>27</v>
       </c>
       <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C41" s="12"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>28</v>
       </c>
       <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C42" s="12"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>29</v>
       </c>
       <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C43" s="12"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>30</v>
       </c>
       <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="23"/>
-    </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C44" s="12"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>31</v>
       </c>
       <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="23"/>
-    </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C45" s="12"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>32</v>
       </c>
       <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="23"/>
-    </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C46" s="12"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>33</v>
       </c>
       <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="23"/>
-    </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C47" s="12"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>34</v>
       </c>
       <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="23"/>
-    </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C48" s="12"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>35</v>
       </c>
       <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="23"/>
-    </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C49" s="12"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>36</v>
       </c>
       <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="23"/>
-    </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C50" s="12"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>37</v>
       </c>
       <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="23"/>
-    </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C51" s="12"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>38</v>
       </c>
       <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="23"/>
-    </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C52" s="12"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>39</v>
       </c>
       <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="23"/>
-    </row>
-    <row r="54" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C53" s="12"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>40</v>
       </c>
       <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="23"/>
-    </row>
-    <row r="55" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="C54" s="12"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>41</v>
       </c>
       <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="23"/>
-    </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="C55" s="12"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>42</v>
       </c>
       <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="23"/>
-    </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A57" s="29" t="s">
+      <c r="C56" s="12"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12">
+        <v>43</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12">
+        <v>44</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12">
+        <v>45</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12">
+        <v>46</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12">
+        <v>47</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="12">
+        <v>48</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="12">
+        <v>49</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="22"/>
+    </row>
+    <row r="64" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>50</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="22"/>
+    </row>
+    <row r="65" spans="1:7" s="2" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="25">
-        <f>SUM(F15:F56)</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="24"/>
-    </row>
-    <row r="58" spans="1:7" s="2" customFormat="1">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A59" s="28" t="s">
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="24">
+        <f>SUM(F15:F64)</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="1:7" s="2" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-    </row>
-    <row r="60" spans="1:7" ht="15">
-      <c r="A60" s="27" t="s">
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+    </row>
+    <row r="68" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-    </row>
-    <row r="61" spans="1:7" ht="15">
-      <c r="A61" s="27" t="s">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+    </row>
+    <row r="69" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-    </row>
-    <row r="62" spans="1:7" ht="15">
-      <c r="A62" s="27" t="s">
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+    </row>
+    <row r="70" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -1521,7 +1668,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -1530,7 +1677,7 @@
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -1539,7 +1686,7 @@
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -1548,7 +1695,7 @@
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -1557,7 +1704,7 @@
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -1566,7 +1713,7 @@
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -1575,7 +1722,7 @@
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -1584,7 +1731,7 @@
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -1593,7 +1740,7 @@
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -1602,7 +1749,7 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -1611,7 +1758,7 @@
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -1620,7 +1767,7 @@
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -1629,7 +1776,7 @@
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -1638,7 +1785,7 @@
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -1647,7 +1794,7 @@
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -1656,7 +1803,7 @@
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -1665,7 +1812,7 @@
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -1674,7 +1821,7 @@
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -1683,7 +1830,7 @@
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -1692,7 +1839,7 @@
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -1701,7 +1848,7 @@
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -1710,7 +1857,7 @@
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -1719,7 +1866,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -1728,7 +1875,7 @@
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -1737,7 +1884,7 @@
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -1746,7 +1893,7 @@
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -1755,7 +1902,7 @@
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -1764,7 +1911,7 @@
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -1773,7 +1920,7 @@
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -1782,7 +1929,7 @@
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -1791,7 +1938,7 @@
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -1800,7 +1947,7 @@
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -1809,7 +1956,7 @@
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -1818,7 +1965,7 @@
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -1827,7 +1974,7 @@
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -1836,7 +1983,7 @@
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -1845,7 +1992,7 @@
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -1854,7 +2001,7 @@
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -1863,7 +2010,7 @@
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -1872,7 +2019,7 @@
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -1881,7 +2028,7 @@
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -1890,7 +2037,7 @@
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -1899,7 +2046,7 @@
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -1908,7 +2055,7 @@
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -1917,7 +2064,7 @@
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -1926,7 +2073,7 @@
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -1935,7 +2082,7 @@
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -1944,7 +2091,7 @@
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -1953,7 +2100,7 @@
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -1962,7 +2109,7 @@
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -1971,7 +2118,7 @@
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -1980,7 +2127,7 @@
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -1989,7 +2136,7 @@
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -1998,7 +2145,7 @@
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -2007,7 +2154,7 @@
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -2016,7 +2163,7 @@
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -2025,7 +2172,7 @@
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -2034,7 +2181,7 @@
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -2043,7 +2190,7 @@
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -2052,7 +2199,7 @@
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -2061,7 +2208,7 @@
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -2070,7 +2217,7 @@
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -2079,7 +2226,7 @@
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -2088,7 +2235,7 @@
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -2097,7 +2244,7 @@
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -2106,7 +2253,7 @@
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -2115,7 +2262,7 @@
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -2124,7 +2271,7 @@
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -2133,7 +2280,7 @@
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -2142,7 +2289,7 @@
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -2151,7 +2298,7 @@
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -2160,7 +2307,7 @@
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -2169,7 +2316,7 @@
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -2178,7 +2325,7 @@
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -2187,7 +2334,7 @@
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -2196,7 +2343,7 @@
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -2205,7 +2352,7 @@
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -2214,7 +2361,7 @@
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -2223,7 +2370,7 @@
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -2232,7 +2379,7 @@
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -2241,7 +2388,7 @@
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -2250,7 +2397,7 @@
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -2259,7 +2406,7 @@
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -2268,7 +2415,7 @@
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -2277,7 +2424,7 @@
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -2286,7 +2433,7 @@
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -2295,7 +2442,7 @@
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -2304,7 +2451,7 @@
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -2313,7 +2460,7 @@
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -2322,7 +2469,7 @@
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -2331,7 +2478,7 @@
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -2340,7 +2487,7 @@
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -2349,7 +2496,7 @@
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -2358,7 +2505,7 @@
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -2367,7 +2514,7 @@
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -2376,7 +2523,7 @@
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -2385,7 +2532,7 @@
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -2394,7 +2541,7 @@
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -2403,7 +2550,7 @@
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -2412,7 +2559,7 @@
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -2421,7 +2568,7 @@
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -2430,7 +2577,7 @@
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -2439,7 +2586,7 @@
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -2448,7 +2595,7 @@
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -2457,7 +2604,7 @@
       <c r="F175" s="11"/>
       <c r="G175" s="11"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -2466,7 +2613,7 @@
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -2475,7 +2622,7 @@
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -2484,7 +2631,7 @@
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -2493,7 +2640,7 @@
       <c r="F179" s="11"/>
       <c r="G179" s="11"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -2502,7 +2649,7 @@
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -2511,7 +2658,7 @@
       <c r="F181" s="11"/>
       <c r="G181" s="11"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -2520,7 +2667,7 @@
       <c r="F182" s="11"/>
       <c r="G182" s="11"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -2529,7 +2676,7 @@
       <c r="F183" s="11"/>
       <c r="G183" s="11"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -2538,7 +2685,7 @@
       <c r="F184" s="11"/>
       <c r="G184" s="11"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -2547,7 +2694,7 @@
       <c r="F185" s="11"/>
       <c r="G185" s="11"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -2556,7 +2703,7 @@
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -2565,7 +2712,7 @@
       <c r="F187" s="11"/>
       <c r="G187" s="11"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -2574,7 +2721,7 @@
       <c r="F188" s="11"/>
       <c r="G188" s="11"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -2583,7 +2730,7 @@
       <c r="F189" s="11"/>
       <c r="G189" s="11"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -2592,7 +2739,7 @@
       <c r="F190" s="11"/>
       <c r="G190" s="11"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -2601,7 +2748,7 @@
       <c r="F191" s="11"/>
       <c r="G191" s="11"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -2610,7 +2757,7 @@
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -2619,7 +2766,7 @@
       <c r="F193" s="11"/>
       <c r="G193" s="11"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -2628,7 +2775,7 @@
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -2637,7 +2784,7 @@
       <c r="F195" s="11"/>
       <c r="G195" s="11"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -2646,7 +2793,7 @@
       <c r="F196" s="11"/>
       <c r="G196" s="11"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -2655,7 +2802,7 @@
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -2664,7 +2811,7 @@
       <c r="F198" s="11"/>
       <c r="G198" s="11"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -2673,7 +2820,7 @@
       <c r="F199" s="11"/>
       <c r="G199" s="11"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -2682,7 +2829,7 @@
       <c r="F200" s="11"/>
       <c r="G200" s="11"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -2691,7 +2838,7 @@
       <c r="F201" s="11"/>
       <c r="G201" s="11"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -2700,7 +2847,7 @@
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -2709,7 +2856,7 @@
       <c r="F203" s="11"/>
       <c r="G203" s="11"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -2718,7 +2865,7 @@
       <c r="F204" s="11"/>
       <c r="G204" s="11"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -2727,7 +2874,7 @@
       <c r="F205" s="11"/>
       <c r="G205" s="11"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -2736,7 +2883,7 @@
       <c r="F206" s="11"/>
       <c r="G206" s="11"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -2745,7 +2892,7 @@
       <c r="F207" s="11"/>
       <c r="G207" s="11"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -2754,7 +2901,7 @@
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -2763,7 +2910,7 @@
       <c r="F209" s="11"/>
       <c r="G209" s="11"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -2772,7 +2919,7 @@
       <c r="F210" s="11"/>
       <c r="G210" s="11"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -2781,7 +2928,7 @@
       <c r="F211" s="11"/>
       <c r="G211" s="11"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -2790,7 +2937,7 @@
       <c r="F212" s="11"/>
       <c r="G212" s="11"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -2799,7 +2946,7 @@
       <c r="F213" s="11"/>
       <c r="G213" s="11"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -2808,7 +2955,7 @@
       <c r="F214" s="11"/>
       <c r="G214" s="11"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -2817,7 +2964,7 @@
       <c r="F215" s="11"/>
       <c r="G215" s="11"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -2826,7 +2973,7 @@
       <c r="F216" s="11"/>
       <c r="G216" s="11"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -2835,7 +2982,7 @@
       <c r="F217" s="11"/>
       <c r="G217" s="11"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="9"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -2844,7 +2991,7 @@
       <c r="F218" s="11"/>
       <c r="G218" s="11"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -2853,7 +3000,7 @@
       <c r="F219" s="11"/>
       <c r="G219" s="11"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="9"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -2862,7 +3009,7 @@
       <c r="F220" s="11"/>
       <c r="G220" s="11"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -2871,7 +3018,7 @@
       <c r="F221" s="11"/>
       <c r="G221" s="11"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -2880,7 +3027,7 @@
       <c r="F222" s="11"/>
       <c r="G222" s="11"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -2889,7 +3036,7 @@
       <c r="F223" s="11"/>
       <c r="G223" s="11"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -2898,7 +3045,7 @@
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="9"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -2907,7 +3054,7 @@
       <c r="F225" s="11"/>
       <c r="G225" s="11"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="9"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -2916,7 +3063,7 @@
       <c r="F226" s="11"/>
       <c r="G226" s="11"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -2925,7 +3072,7 @@
       <c r="F227" s="11"/>
       <c r="G227" s="11"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -2934,7 +3081,7 @@
       <c r="F228" s="11"/>
       <c r="G228" s="11"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="9"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -2943,7 +3090,7 @@
       <c r="F229" s="11"/>
       <c r="G229" s="11"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -2952,7 +3099,7 @@
       <c r="F230" s="11"/>
       <c r="G230" s="11"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -2961,7 +3108,7 @@
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="9"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -2970,7 +3117,7 @@
       <c r="F232" s="11"/>
       <c r="G232" s="11"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="9"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -2979,7 +3126,7 @@
       <c r="F233" s="11"/>
       <c r="G233" s="11"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -2988,7 +3135,7 @@
       <c r="F234" s="11"/>
       <c r="G234" s="11"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -2997,7 +3144,7 @@
       <c r="F235" s="11"/>
       <c r="G235" s="11"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -3006,7 +3153,7 @@
       <c r="F236" s="11"/>
       <c r="G236" s="11"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -3015,7 +3162,7 @@
       <c r="F237" s="11"/>
       <c r="G237" s="11"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -3024,7 +3171,7 @@
       <c r="F238" s="11"/>
       <c r="G238" s="11"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="9"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -3033,7 +3180,7 @@
       <c r="F239" s="11"/>
       <c r="G239" s="11"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -3042,7 +3189,7 @@
       <c r="F240" s="11"/>
       <c r="G240" s="11"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="9"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -3051,7 +3198,7 @@
       <c r="F241" s="11"/>
       <c r="G241" s="11"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="9"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -3060,7 +3207,7 @@
       <c r="F242" s="11"/>
       <c r="G242" s="11"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -3069,7 +3216,7 @@
       <c r="F243" s="11"/>
       <c r="G243" s="11"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -3078,7 +3225,7 @@
       <c r="F244" s="11"/>
       <c r="G244" s="11"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
@@ -3087,7 +3234,7 @@
       <c r="F245" s="11"/>
       <c r="G245" s="11"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="9"/>
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
@@ -3096,7 +3243,7 @@
       <c r="F246" s="11"/>
       <c r="G246" s="11"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="9"/>
       <c r="B247" s="10"/>
       <c r="C247" s="10"/>
@@ -3105,7 +3252,7 @@
       <c r="F247" s="11"/>
       <c r="G247" s="11"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="9"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -3114,7 +3261,7 @@
       <c r="F248" s="11"/>
       <c r="G248" s="11"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="9"/>
       <c r="B249" s="10"/>
       <c r="C249" s="10"/>
@@ -3123,7 +3270,7 @@
       <c r="F249" s="11"/>
       <c r="G249" s="11"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
@@ -3132,7 +3279,7 @@
       <c r="F250" s="11"/>
       <c r="G250" s="11"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="9"/>
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
@@ -3141,7 +3288,7 @@
       <c r="F251" s="11"/>
       <c r="G251" s="11"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
@@ -3150,7 +3297,7 @@
       <c r="F252" s="11"/>
       <c r="G252" s="11"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
@@ -3159,7 +3306,7 @@
       <c r="F253" s="11"/>
       <c r="G253" s="11"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
@@ -3168,7 +3315,7 @@
       <c r="F254" s="11"/>
       <c r="G254" s="11"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="9"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -3177,7 +3324,7 @@
       <c r="F255" s="11"/>
       <c r="G255" s="11"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="9"/>
       <c r="B256" s="10"/>
       <c r="C256" s="10"/>
@@ -3186,25 +3333,97 @@
       <c r="F256" s="11"/>
       <c r="G256" s="11"/>
     </row>
-    <row r="65369" spans="7:7">
-      <c r="G65369" s="6"/>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="9"/>
+      <c r="B257" s="10"/>
+      <c r="C257" s="10"/>
+      <c r="D257" s="9"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="9"/>
+      <c r="B258" s="10"/>
+      <c r="C258" s="10"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="9"/>
+      <c r="B259" s="10"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="11"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="9"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="11"/>
+      <c r="G260" s="11"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="9"/>
+      <c r="B261" s="10"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="11"/>
+      <c r="G261" s="11"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="9"/>
+      <c r="B262" s="10"/>
+      <c r="C262" s="10"/>
+      <c r="D262" s="9"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="11"/>
+      <c r="G262" s="11"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="9"/>
+      <c r="B263" s="10"/>
+      <c r="C263" s="10"/>
+      <c r="D263" s="9"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="11"/>
+      <c r="G263" s="11"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="9"/>
+      <c r="B264" s="10"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="9"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="11"/>
+      <c r="G264" s="11"/>
+    </row>
+    <row r="65377" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65377" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:F81">
-    <sortCondition ref="B15:B81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:F89">
+    <sortCondition ref="B15:B89"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A65:E65"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A57:E57"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.23622047244094491" bottom="1.0629921259842521" header="0.94488188976377963" footer="0.31496062992125984"/>
@@ -3212,5 +3431,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CNORDESTE COMERCIAL LTDA - MEAv. Lourival Batista, 100 – Centro - Nossa Senhora da Glória/SE  - CEP: 49680-000CNPJ: 32.800.351/0001-73 = I.E.: 27.079.264-3 // FONE: (79) 99996-1105EMAIL:ncegloria@gmail.com.br - INSTAGRAM:@livrarianordeste&amp;RPag. &amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>